--- a/ULS_Tawarruq_Ajith/TestData/MurabhaTestData.xlsx
+++ b/ULS_Tawarruq_Ajith/TestData/MurabhaTestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Murabha_LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="EmploymentDetails_AppData" sheetId="5" r:id="rId2"/>
     <sheet name="Appdata_EmployementDetailsExe" sheetId="6" r:id="rId3"/>
+    <sheet name="MurabhaContractSigningTestData" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>UserName</t>
   </si>
@@ -88,6 +89,105 @@
   </si>
   <si>
     <t>3393</t>
+  </si>
+  <si>
+    <t>AT_MU_EMPD_02</t>
+  </si>
+  <si>
+    <t>AT_MU_EMPD_02_D1</t>
+  </si>
+  <si>
+    <t>Nature of Employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensioner </t>
+  </si>
+  <si>
+    <t>AT_MU_EMPD_03</t>
+  </si>
+  <si>
+    <t>AT_MU_EMPD_03_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_EMPD_04</t>
+  </si>
+  <si>
+    <t>AT_MU_EMPD_04_D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company/Firm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-employed Professional </t>
+  </si>
+  <si>
+    <t>2052</t>
+  </si>
+  <si>
+    <t>userType03</t>
+  </si>
+  <si>
+    <t>4046</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_01</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_02</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_03</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_04</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_02_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_03_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_04_D1</t>
+  </si>
+  <si>
+    <t>ContractSigningAuthority1</t>
+  </si>
+  <si>
+    <t>ContractSigningAuthority2</t>
+  </si>
+  <si>
+    <t>Purchases Contract</t>
+  </si>
+  <si>
+    <t>Expense Contract</t>
+  </si>
+  <si>
+    <t>PromissoryNoteFrequency</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>NoOfPromissoryNote</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_01_D1</t>
+  </si>
+  <si>
+    <t>CharacterInvalidData</t>
+  </si>
+  <si>
+    <t>SpeicalCharacterInvalidData</t>
+  </si>
+  <si>
+    <t>2abc</t>
+  </si>
+  <si>
+    <t>2%$$%</t>
   </si>
 </sst>
 </file>
@@ -176,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -223,6 +323,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -232,13 +343,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -248,6 +358,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
@@ -544,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -559,13 +672,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -591,9 +704,21 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -601,10 +726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -612,30 +737,77 @@
     <col min="1" max="1" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35.5703125" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="30.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="33" width="9.140625" style="2"/>
+    <col min="4" max="4" width="27.7109375" style="2" customWidth="1"/>
+    <col min="5" max="33" width="9.140625" style="2"/>
     <col min="34" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="13" t="s">
         <v>23</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -646,11 +818,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -665,28 +835,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -697,22 +867,206 @@
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>